--- a/doc/comparison_matrix_qp.xlsx
+++ b/doc/comparison_matrix_qp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,11 +9,205 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="4851"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12343" windowHeight="4851"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v3.0" hidden="1">Sheet1!$A$10</definedName>
+    <definedName name="_xlchart.v3.1" hidden="1">Sheet1!$A$11</definedName>
+    <definedName name="_xlchart.v3.10" hidden="1">Sheet1!$A$9</definedName>
+    <definedName name="_xlchart.v3.100" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v3.101" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v3.102" hidden="1">Sheet1!$A$5</definedName>
+    <definedName name="_xlchart.v3.103" hidden="1">Sheet1!$A$6</definedName>
+    <definedName name="_xlchart.v3.104" hidden="1">Sheet1!$A$7</definedName>
+    <definedName name="_xlchart.v3.105" hidden="1">Sheet1!$A$8</definedName>
+    <definedName name="_xlchart.v3.106" hidden="1">Sheet1!$A$9</definedName>
+    <definedName name="_xlchart.v3.107" hidden="1">Sheet1!$H$10:$N$10</definedName>
+    <definedName name="_xlchart.v3.108" hidden="1">Sheet1!$H$11:$N$11</definedName>
+    <definedName name="_xlchart.v3.109" hidden="1">Sheet1!$H$12:$N$12</definedName>
+    <definedName name="_xlchart.v3.11" hidden="1">Sheet1!$H$10:$N$10</definedName>
+    <definedName name="_xlchart.v3.110" hidden="1">Sheet1!$H$13:$N$13</definedName>
+    <definedName name="_xlchart.v3.111" hidden="1">Sheet1!$H$2:$N$2</definedName>
+    <definedName name="_xlchart.v3.112" hidden="1">Sheet1!$H$3:$N$3</definedName>
+    <definedName name="_xlchart.v3.113" hidden="1">Sheet1!$H$4:$N$4</definedName>
+    <definedName name="_xlchart.v3.114" hidden="1">Sheet1!$H$5:$N$5</definedName>
+    <definedName name="_xlchart.v3.115" hidden="1">Sheet1!$H$6:$N$6</definedName>
+    <definedName name="_xlchart.v3.116" hidden="1">Sheet1!$H$7:$N$7</definedName>
+    <definedName name="_xlchart.v3.117" hidden="1">Sheet1!$H$8:$N$8</definedName>
+    <definedName name="_xlchart.v3.118" hidden="1">Sheet1!$H$9:$N$9</definedName>
+    <definedName name="_xlchart.v3.119" hidden="1">Sheet1!$H$9:$N$9</definedName>
+    <definedName name="_xlchart.v3.12" hidden="1">Sheet1!$H$11:$N$11</definedName>
+    <definedName name="_xlchart.v3.120" hidden="1">Sheet1!$A$10</definedName>
+    <definedName name="_xlchart.v3.121" hidden="1">Sheet1!$A$11</definedName>
+    <definedName name="_xlchart.v3.122" hidden="1">Sheet1!$A$12</definedName>
+    <definedName name="_xlchart.v3.123" hidden="1">Sheet1!$A$13</definedName>
+    <definedName name="_xlchart.v3.124" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v3.125" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v3.126" hidden="1">Sheet1!$A$5</definedName>
+    <definedName name="_xlchart.v3.127" hidden="1">Sheet1!$A$6</definedName>
+    <definedName name="_xlchart.v3.128" hidden="1">Sheet1!$A$7</definedName>
+    <definedName name="_xlchart.v3.129" hidden="1">Sheet1!$A$8</definedName>
+    <definedName name="_xlchart.v3.13" hidden="1">Sheet1!$H$12:$N$12</definedName>
+    <definedName name="_xlchart.v3.130" hidden="1">Sheet1!$A$9</definedName>
+    <definedName name="_xlchart.v3.131" hidden="1">Sheet1!$H$10:$N$10</definedName>
+    <definedName name="_xlchart.v3.132" hidden="1">Sheet1!$H$11:$N$11</definedName>
+    <definedName name="_xlchart.v3.133" hidden="1">Sheet1!$H$12:$N$12</definedName>
+    <definedName name="_xlchart.v3.134" hidden="1">Sheet1!$H$13:$N$13</definedName>
+    <definedName name="_xlchart.v3.135" hidden="1">Sheet1!$H$2:$N$2</definedName>
+    <definedName name="_xlchart.v3.136" hidden="1">Sheet1!$H$3:$N$3</definedName>
+    <definedName name="_xlchart.v3.137" hidden="1">Sheet1!$H$4:$N$4</definedName>
+    <definedName name="_xlchart.v3.138" hidden="1">Sheet1!$H$5:$N$5</definedName>
+    <definedName name="_xlchart.v3.139" hidden="1">Sheet1!$H$6:$N$6</definedName>
+    <definedName name="_xlchart.v3.14" hidden="1">Sheet1!$H$13:$N$13</definedName>
+    <definedName name="_xlchart.v3.140" hidden="1">Sheet1!$H$7:$N$7</definedName>
+    <definedName name="_xlchart.v3.141" hidden="1">Sheet1!$H$8:$N$8</definedName>
+    <definedName name="_xlchart.v3.142" hidden="1">Sheet1!$H$9:$N$9</definedName>
+    <definedName name="_xlchart.v3.143" hidden="1">Sheet1!$H$9:$N$9</definedName>
+    <definedName name="_xlchart.v3.144" hidden="1">Sheet1!$A$10</definedName>
+    <definedName name="_xlchart.v3.145" hidden="1">Sheet1!$A$11</definedName>
+    <definedName name="_xlchart.v3.146" hidden="1">Sheet1!$A$12</definedName>
+    <definedName name="_xlchart.v3.147" hidden="1">Sheet1!$A$13</definedName>
+    <definedName name="_xlchart.v3.148" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v3.149" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v3.15" hidden="1">Sheet1!$H$2:$N$2</definedName>
+    <definedName name="_xlchart.v3.150" hidden="1">Sheet1!$A$5</definedName>
+    <definedName name="_xlchart.v3.151" hidden="1">Sheet1!$A$6</definedName>
+    <definedName name="_xlchart.v3.152" hidden="1">Sheet1!$A$7</definedName>
+    <definedName name="_xlchart.v3.153" hidden="1">Sheet1!$A$8</definedName>
+    <definedName name="_xlchart.v3.154" hidden="1">Sheet1!$A$9</definedName>
+    <definedName name="_xlchart.v3.155" hidden="1">Sheet1!$H$10:$N$10</definedName>
+    <definedName name="_xlchart.v3.156" hidden="1">Sheet1!$H$11:$N$11</definedName>
+    <definedName name="_xlchart.v3.157" hidden="1">Sheet1!$H$12:$N$12</definedName>
+    <definedName name="_xlchart.v3.158" hidden="1">Sheet1!$H$13:$N$13</definedName>
+    <definedName name="_xlchart.v3.159" hidden="1">Sheet1!$H$2:$N$2</definedName>
+    <definedName name="_xlchart.v3.16" hidden="1">Sheet1!$H$3:$N$3</definedName>
+    <definedName name="_xlchart.v3.160" hidden="1">Sheet1!$H$3:$N$3</definedName>
+    <definedName name="_xlchart.v3.161" hidden="1">Sheet1!$H$4:$N$4</definedName>
+    <definedName name="_xlchart.v3.162" hidden="1">Sheet1!$H$5:$N$5</definedName>
+    <definedName name="_xlchart.v3.163" hidden="1">Sheet1!$H$6:$N$6</definedName>
+    <definedName name="_xlchart.v3.164" hidden="1">Sheet1!$H$7:$N$7</definedName>
+    <definedName name="_xlchart.v3.165" hidden="1">Sheet1!$H$8:$N$8</definedName>
+    <definedName name="_xlchart.v3.166" hidden="1">Sheet1!$H$9:$N$9</definedName>
+    <definedName name="_xlchart.v3.167" hidden="1">Sheet1!$H$9:$N$9</definedName>
+    <definedName name="_xlchart.v3.168" hidden="1">Sheet1!$A$10</definedName>
+    <definedName name="_xlchart.v3.169" hidden="1">Sheet1!$A$11</definedName>
+    <definedName name="_xlchart.v3.17" hidden="1">Sheet1!$H$4:$N$4</definedName>
+    <definedName name="_xlchart.v3.170" hidden="1">Sheet1!$A$12</definedName>
+    <definedName name="_xlchart.v3.171" hidden="1">Sheet1!$A$13</definedName>
+    <definedName name="_xlchart.v3.172" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v3.173" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v3.174" hidden="1">Sheet1!$A$5</definedName>
+    <definedName name="_xlchart.v3.175" hidden="1">Sheet1!$A$6</definedName>
+    <definedName name="_xlchart.v3.176" hidden="1">Sheet1!$A$7</definedName>
+    <definedName name="_xlchart.v3.177" hidden="1">Sheet1!$A$8</definedName>
+    <definedName name="_xlchart.v3.178" hidden="1">Sheet1!$A$9</definedName>
+    <definedName name="_xlchart.v3.179" hidden="1">Sheet1!$H$10:$N$10</definedName>
+    <definedName name="_xlchart.v3.18" hidden="1">Sheet1!$H$5:$N$5</definedName>
+    <definedName name="_xlchart.v3.180" hidden="1">Sheet1!$H$11:$N$11</definedName>
+    <definedName name="_xlchart.v3.181" hidden="1">Sheet1!$H$12:$N$12</definedName>
+    <definedName name="_xlchart.v3.182" hidden="1">Sheet1!$H$13:$N$13</definedName>
+    <definedName name="_xlchart.v3.183" hidden="1">Sheet1!$H$2:$N$2</definedName>
+    <definedName name="_xlchart.v3.184" hidden="1">Sheet1!$H$3:$N$3</definedName>
+    <definedName name="_xlchart.v3.185" hidden="1">Sheet1!$H$4:$N$4</definedName>
+    <definedName name="_xlchart.v3.186" hidden="1">Sheet1!$H$5:$N$5</definedName>
+    <definedName name="_xlchart.v3.187" hidden="1">Sheet1!$H$6:$N$6</definedName>
+    <definedName name="_xlchart.v3.188" hidden="1">Sheet1!$H$7:$N$7</definedName>
+    <definedName name="_xlchart.v3.189" hidden="1">Sheet1!$H$8:$N$8</definedName>
+    <definedName name="_xlchart.v3.19" hidden="1">Sheet1!$H$6:$N$6</definedName>
+    <definedName name="_xlchart.v3.190" hidden="1">Sheet1!$H$9:$N$9</definedName>
+    <definedName name="_xlchart.v3.191" hidden="1">Sheet1!$H$9:$N$9</definedName>
+    <definedName name="_xlchart.v3.2" hidden="1">Sheet1!$A$12</definedName>
+    <definedName name="_xlchart.v3.20" hidden="1">Sheet1!$H$7:$N$7</definedName>
+    <definedName name="_xlchart.v3.21" hidden="1">Sheet1!$H$8:$N$8</definedName>
+    <definedName name="_xlchart.v3.22" hidden="1">Sheet1!$H$9:$N$9</definedName>
+    <definedName name="_xlchart.v3.23" hidden="1">Sheet1!$H$9:$N$9</definedName>
+    <definedName name="_xlchart.v3.24" hidden="1">Sheet1!$A$10</definedName>
+    <definedName name="_xlchart.v3.25" hidden="1">Sheet1!$A$11</definedName>
+    <definedName name="_xlchart.v3.26" hidden="1">Sheet1!$A$12</definedName>
+    <definedName name="_xlchart.v3.27" hidden="1">Sheet1!$A$13</definedName>
+    <definedName name="_xlchart.v3.28" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v3.29" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v3.3" hidden="1">Sheet1!$A$13</definedName>
+    <definedName name="_xlchart.v3.30" hidden="1">Sheet1!$A$5</definedName>
+    <definedName name="_xlchart.v3.31" hidden="1">Sheet1!$A$6</definedName>
+    <definedName name="_xlchart.v3.32" hidden="1">Sheet1!$A$7</definedName>
+    <definedName name="_xlchart.v3.33" hidden="1">Sheet1!$A$8</definedName>
+    <definedName name="_xlchart.v3.34" hidden="1">Sheet1!$A$9</definedName>
+    <definedName name="_xlchart.v3.35" hidden="1">Sheet1!$H$10:$N$10</definedName>
+    <definedName name="_xlchart.v3.36" hidden="1">Sheet1!$H$11:$N$11</definedName>
+    <definedName name="_xlchart.v3.37" hidden="1">Sheet1!$H$12:$N$12</definedName>
+    <definedName name="_xlchart.v3.38" hidden="1">Sheet1!$H$13:$N$13</definedName>
+    <definedName name="_xlchart.v3.39" hidden="1">Sheet1!$H$2:$N$2</definedName>
+    <definedName name="_xlchart.v3.4" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v3.40" hidden="1">Sheet1!$H$3:$N$3</definedName>
+    <definedName name="_xlchart.v3.41" hidden="1">Sheet1!$H$4:$N$4</definedName>
+    <definedName name="_xlchart.v3.42" hidden="1">Sheet1!$H$5:$N$5</definedName>
+    <definedName name="_xlchart.v3.43" hidden="1">Sheet1!$H$6:$N$6</definedName>
+    <definedName name="_xlchart.v3.44" hidden="1">Sheet1!$H$7:$N$7</definedName>
+    <definedName name="_xlchart.v3.45" hidden="1">Sheet1!$H$8:$N$8</definedName>
+    <definedName name="_xlchart.v3.46" hidden="1">Sheet1!$H$9:$N$9</definedName>
+    <definedName name="_xlchart.v3.47" hidden="1">Sheet1!$H$9:$N$9</definedName>
+    <definedName name="_xlchart.v3.48" hidden="1">Sheet1!$A$10</definedName>
+    <definedName name="_xlchart.v3.49" hidden="1">Sheet1!$A$11</definedName>
+    <definedName name="_xlchart.v3.5" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v3.50" hidden="1">Sheet1!$A$12</definedName>
+    <definedName name="_xlchart.v3.51" hidden="1">Sheet1!$A$13</definedName>
+    <definedName name="_xlchart.v3.52" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v3.53" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v3.54" hidden="1">Sheet1!$A$5</definedName>
+    <definedName name="_xlchart.v3.55" hidden="1">Sheet1!$A$6</definedName>
+    <definedName name="_xlchart.v3.56" hidden="1">Sheet1!$A$7</definedName>
+    <definedName name="_xlchart.v3.57" hidden="1">Sheet1!$A$8</definedName>
+    <definedName name="_xlchart.v3.58" hidden="1">Sheet1!$A$9</definedName>
+    <definedName name="_xlchart.v3.59" hidden="1">Sheet1!$H$10:$N$10</definedName>
+    <definedName name="_xlchart.v3.6" hidden="1">Sheet1!$A$5</definedName>
+    <definedName name="_xlchart.v3.60" hidden="1">Sheet1!$H$11:$N$11</definedName>
+    <definedName name="_xlchart.v3.61" hidden="1">Sheet1!$H$12:$N$12</definedName>
+    <definedName name="_xlchart.v3.62" hidden="1">Sheet1!$H$13:$N$13</definedName>
+    <definedName name="_xlchart.v3.63" hidden="1">Sheet1!$H$2:$N$2</definedName>
+    <definedName name="_xlchart.v3.64" hidden="1">Sheet1!$H$3:$N$3</definedName>
+    <definedName name="_xlchart.v3.65" hidden="1">Sheet1!$H$4:$N$4</definedName>
+    <definedName name="_xlchart.v3.66" hidden="1">Sheet1!$H$5:$N$5</definedName>
+    <definedName name="_xlchart.v3.67" hidden="1">Sheet1!$H$6:$N$6</definedName>
+    <definedName name="_xlchart.v3.68" hidden="1">Sheet1!$H$7:$N$7</definedName>
+    <definedName name="_xlchart.v3.69" hidden="1">Sheet1!$H$8:$N$8</definedName>
+    <definedName name="_xlchart.v3.7" hidden="1">Sheet1!$A$6</definedName>
+    <definedName name="_xlchart.v3.70" hidden="1">Sheet1!$H$9:$N$9</definedName>
+    <definedName name="_xlchart.v3.71" hidden="1">Sheet1!$H$9:$N$9</definedName>
+    <definedName name="_xlchart.v3.72" hidden="1">Sheet1!$A$10</definedName>
+    <definedName name="_xlchart.v3.73" hidden="1">Sheet1!$A$11</definedName>
+    <definedName name="_xlchart.v3.74" hidden="1">Sheet1!$A$12</definedName>
+    <definedName name="_xlchart.v3.75" hidden="1">Sheet1!$A$13</definedName>
+    <definedName name="_xlchart.v3.76" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v3.77" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v3.78" hidden="1">Sheet1!$A$5</definedName>
+    <definedName name="_xlchart.v3.79" hidden="1">Sheet1!$A$6</definedName>
+    <definedName name="_xlchart.v3.8" hidden="1">Sheet1!$A$7</definedName>
+    <definedName name="_xlchart.v3.80" hidden="1">Sheet1!$A$7</definedName>
+    <definedName name="_xlchart.v3.81" hidden="1">Sheet1!$A$8</definedName>
+    <definedName name="_xlchart.v3.82" hidden="1">Sheet1!$A$9</definedName>
+    <definedName name="_xlchart.v3.83" hidden="1">Sheet1!$H$10:$N$10</definedName>
+    <definedName name="_xlchart.v3.84" hidden="1">Sheet1!$H$11:$N$11</definedName>
+    <definedName name="_xlchart.v3.85" hidden="1">Sheet1!$H$12:$N$12</definedName>
+    <definedName name="_xlchart.v3.86" hidden="1">Sheet1!$H$13:$N$13</definedName>
+    <definedName name="_xlchart.v3.87" hidden="1">Sheet1!$H$2:$N$2</definedName>
+    <definedName name="_xlchart.v3.88" hidden="1">Sheet1!$H$3:$N$3</definedName>
+    <definedName name="_xlchart.v3.89" hidden="1">Sheet1!$H$4:$N$4</definedName>
+    <definedName name="_xlchart.v3.9" hidden="1">Sheet1!$A$8</definedName>
+    <definedName name="_xlchart.v3.90" hidden="1">Sheet1!$H$5:$N$5</definedName>
+    <definedName name="_xlchart.v3.91" hidden="1">Sheet1!$H$6:$N$6</definedName>
+    <definedName name="_xlchart.v3.92" hidden="1">Sheet1!$H$7:$N$7</definedName>
+    <definedName name="_xlchart.v3.93" hidden="1">Sheet1!$H$8:$N$8</definedName>
+    <definedName name="_xlchart.v3.94" hidden="1">Sheet1!$H$9:$N$9</definedName>
+    <definedName name="_xlchart.v3.95" hidden="1">Sheet1!$H$9:$N$9</definedName>
+    <definedName name="_xlchart.v3.96" hidden="1">Sheet1!$A$10</definedName>
+    <definedName name="_xlchart.v3.97" hidden="1">Sheet1!$A$11</definedName>
+    <definedName name="_xlchart.v3.98" hidden="1">Sheet1!$A$12</definedName>
+    <definedName name="_xlchart.v3.99" hidden="1">Sheet1!$A$13</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>Reference</t>
   </si>
@@ -50,27 +244,6 @@
     <t>Luna Optoelectronics</t>
   </si>
   <si>
-    <t>V 400nm</t>
-  </si>
-  <si>
-    <t>B 475nm</t>
-  </si>
-  <si>
-    <t>R 650nm</t>
-  </si>
-  <si>
-    <t>I 450nm</t>
-  </si>
-  <si>
-    <t>G 500nm</t>
-  </si>
-  <si>
-    <t>Y 575nm</t>
-  </si>
-  <si>
-    <t>O 600nm</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/luna-optoelectronics/SD197-23-21-041/SD197-23-21-041-ND/1012507</t>
   </si>
   <si>
@@ -80,25 +253,106 @@
     <t>Response Time (ns)</t>
   </si>
   <si>
-    <t>Responsivity (A/W)</t>
-  </si>
-  <si>
-    <t>TO-8 (through-hole)</t>
-  </si>
-  <si>
     <t>PDB-C203</t>
   </si>
   <si>
-    <t>Color-Enhanced</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>TO-5 (through-hole)</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/luna-http://www.digikey.com/product-detail/en/luna-optoelectronics/PDB-C203/PDB-C203-ND/201823optoelectronics/SD197-23-21-041/SD197-23-21-041-ND/1012507</t>
+    <t>SD085-23-21-021</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/luna-optoelectronics/SD085-23-21-021/SD085-23-21-021-ND/1012490</t>
+  </si>
+  <si>
+    <t>SD118-23-21-021</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/luna-optoelectronics/SD118-23-21-021/SD118-23-21-021-ND/1012503</t>
+  </si>
+  <si>
+    <t>SD225-23-21-041</t>
+  </si>
+  <si>
+    <t>45 degree viewing angle</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/luna-optoelectronics/SD225-23-21-040/SD225-23-21-040-ND/1012518</t>
+  </si>
+  <si>
+    <t>TT Electronics/Optek Technology</t>
+  </si>
+  <si>
+    <t>OPR5925</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Waffle/Chip Tray (surface mount)</t>
+  </si>
+  <si>
+    <t>QP5.8-6</t>
+  </si>
+  <si>
+    <t>First Sensor</t>
+  </si>
+  <si>
+    <t>20ns</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/First-Sensor/QP58-6-TO5/?qs=sGAEpiMZZMtWNtIk7yMEsWYqMtd76IRNp6trVSLtLDk%3d</t>
+  </si>
+  <si>
+    <t>QP10-6</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/First-Sensor/QP10-6-TO5/?qs=hIohqi1S7IqS6Zs26%252b7S3Q%3D%3D</t>
+  </si>
+  <si>
+    <t>QP100-6</t>
+  </si>
+  <si>
+    <t>50ns</t>
+  </si>
+  <si>
+    <t>Surface Mount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leads accessible from top of package </t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/First-Sensor/QP100-6-SM/?qs=sGAEpiMZZMtWNtIk7yMEsWYqMtd76IRNiztVTZPls1U%3d</t>
+  </si>
+  <si>
+    <t>QP50-6</t>
+  </si>
+  <si>
+    <t>40ns</t>
+  </si>
+  <si>
+    <t>Peak Wavelength</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/First-Sensor/QP50-6-TO8/?qs=sGAEpiMZZMtWNtIk7yMEsWYqMtd76IRN9nmOGJL1s%2fk%3d</t>
+  </si>
+  <si>
+    <t>QP1-6</t>
+  </si>
+  <si>
+    <t>TO-52 (through hole)</t>
+  </si>
+  <si>
+    <t>TO-5 (through hole)</t>
+  </si>
+  <si>
+    <t>TO-8 (through hole)</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/First-Sensor/QP1-6-T052/?qs=hIohqi1S7IpMsX6GrCzudg%3d%3d</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/tt-electronics-optek-technology/OPR5925/365-1873-ND/1638010</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/luna-optoelectronics/PDB-C203/PDB-C203-ND/201823</t>
   </si>
   <si>
     <r>
@@ -125,32 +379,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>) x4</t>
+      <t>) each</t>
     </r>
   </si>
   <si>
-    <t>SD085-23-21-021</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/luna-optoelectronics/SD085-23-21-021/SD085-23-21-021-ND/1012490</t>
-  </si>
-  <si>
-    <t>SD118-23-21-021</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/luna-optoelectronics/SD118-23-21-021/SD118-23-21-021-ND/1012503</t>
-  </si>
-  <si>
-    <t>SD380-23-21-051</t>
-  </si>
-  <si>
-    <t>SD225-23-21-040</t>
-  </si>
-  <si>
-    <t>365-1873</t>
+    <t>Responsivity (A/W) @ Wavelength (nm)</t>
   </si>
 </sst>
 </file>
@@ -161,7 +394,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +435,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,21 +447,81 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF4B0082"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF9F00FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF7F00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -236,31 +530,189 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="6"/>
+        <color theme="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="6"/>
+        <color theme="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="6"/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9F00FF"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF9F00FF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9F00FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF4B0082"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF4B0082"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF4B0082"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00FF00"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00FF00"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00FF00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFF00"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFFFF00"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFF00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF7F00"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF7F00"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF7F00"/>
       </bottom>
       <diagonal/>
     </border>
@@ -270,7 +722,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -279,7 +731,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -289,7 +740,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -300,12 +750,94 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -314,6 +846,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFFF7F00"/>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF4B0082"/>
+      <color rgb="FF9F00FF"/>
+      <color rgb="FF8F00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -323,6 +867,2378 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Responsivity at Visible Wavelengths</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OPR5925</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1FE0-40A9-A30C-617ADD5BF1BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SD118-23-21-021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1FE0-40A9-A30C-617ADD5BF1BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SD085-23-21-021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1FE0-40A9-A30C-617ADD5BF1BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SD197-23-21-041</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1FE0-40A9-A30C-617ADD5BF1BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SD225-23-21-041</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1FE0-40A9-A30C-617ADD5BF1BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDB-C203</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1FE0-40A9-A30C-617ADD5BF1BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QP1-6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1FE0-40A9-A30C-617ADD5BF1BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QP5.8-6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1FE0-40A9-A30C-617ADD5BF1BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QP10-6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1FE0-40A9-A30C-617ADD5BF1BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QP50-6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-1FE0-40A9-A30C-617ADD5BF1BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QP100-6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$13:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-1FE0-40A9-A30C-617ADD5BF1BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1964365583"/>
+        <c:axId val="1968947375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1964365583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="650"/>
+          <c:min val="400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Wavelength (nm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1968947375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1968947375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Responsivity (A/W) @ Wavelength (nm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1964365583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>278546</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>25613</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55AC8121-1123-4D5D-8D99-DEC2EEF9DDE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -622,318 +3538,647 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.4609375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.23046875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.765625" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.53515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.15234375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.921875" style="7" customWidth="1"/>
-    <col min="8" max="14" width="9.23046875" style="6" customWidth="1"/>
-    <col min="15" max="15" width="10.69140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.4609375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.3828125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="7" style="5" customWidth="1"/>
+    <col min="15" max="15" width="9.53515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="23.84375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="1:16" s="9" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="37">
+        <v>400</v>
+      </c>
+      <c r="I2" s="38">
+        <v>450</v>
+      </c>
+      <c r="J2" s="39">
+        <v>475</v>
+      </c>
+      <c r="K2" s="40">
+        <v>500</v>
+      </c>
+      <c r="L2" s="41">
+        <v>575</v>
+      </c>
+      <c r="M2" s="42">
+        <v>600</v>
+      </c>
+      <c r="N2" s="44">
+        <v>650</v>
+      </c>
+      <c r="O2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="17">
+        <v>5.98</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="18">
+        <v>890</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F3" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="36">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I3" s="36">
+        <v>0.19</v>
+      </c>
+      <c r="J3" s="36">
+        <v>0.21</v>
+      </c>
+      <c r="K3" s="36">
+        <v>0.22</v>
+      </c>
+      <c r="L3" s="36">
+        <v>0.31</v>
+      </c>
+      <c r="M3" s="36">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="N3" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="O3" s="16"/>
+      <c r="P3" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="22">
+        <v>72.38</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="23">
+        <v>660</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="23">
+        <v>1.145</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0.19</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0.21</v>
+      </c>
+      <c r="K4" s="23">
+        <v>0.22</v>
+      </c>
+      <c r="L4" s="23">
+        <v>0.31</v>
+      </c>
+      <c r="M4" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="N4" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="O4" s="21"/>
+      <c r="P4" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="27">
+        <v>107.81</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="28">
+        <v>660</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0.19</v>
+      </c>
+      <c r="J5" s="28">
+        <v>0.21</v>
+      </c>
+      <c r="K5" s="28">
+        <v>0.23</v>
+      </c>
+      <c r="L5" s="28">
+        <v>0.32</v>
+      </c>
+      <c r="M5" s="28">
+        <v>0.35</v>
+      </c>
+      <c r="N5" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="O5" s="26"/>
+      <c r="P5" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="22">
+        <v>100.05</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="23">
+        <v>660</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="23">
+        <v>2.355</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I6" s="23">
+        <v>0.18</v>
+      </c>
+      <c r="J6" s="23">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="K6" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="L6" s="23">
+        <v>0.315</v>
+      </c>
+      <c r="M6" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="N6" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="O6" s="21"/>
+      <c r="P6" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="27">
+        <v>93.02</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="28">
+        <v>660</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="28">
+        <v>5.2220000000000004</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I7" s="28">
+        <v>0.18</v>
+      </c>
+      <c r="J7" s="28">
+        <v>0.21</v>
+      </c>
+      <c r="K7" s="28">
+        <v>0.22</v>
+      </c>
+      <c r="L7" s="28">
+        <v>0.32</v>
+      </c>
+      <c r="M7" s="28">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="N7" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="O7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="P7" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="22">
+        <v>60.36</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="23">
+        <v>950</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="23">
+        <v>1.69</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0.12</v>
+      </c>
+      <c r="I8" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="23">
+        <v>0.24</v>
+      </c>
+      <c r="K8" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L8" s="23">
+        <v>0.36</v>
+      </c>
+      <c r="M8" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="N8" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="O8" s="21"/>
+      <c r="P8" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="27">
+        <v>40</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="28">
+        <v>900</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>0</v>
+      <c r="F9" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="28">
+        <v>0.18</v>
+      </c>
+      <c r="I9" s="28">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="J9" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="K9" s="28">
+        <v>0.23</v>
+      </c>
+      <c r="L9" s="28">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="M9" s="28">
+        <v>0.38</v>
+      </c>
+      <c r="N9" s="28">
+        <v>0.42</v>
+      </c>
+      <c r="O9" s="26"/>
+      <c r="P9" s="30" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="11"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="13" t="s">
+    <row r="10" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="22">
+        <v>44.54</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="23">
+        <v>633</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="23">
+        <v>1.44</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="23">
+        <v>0.18</v>
+      </c>
+      <c r="K10" s="23">
+        <v>0.215</v>
+      </c>
+      <c r="L10" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="M10" s="23">
+        <v>0.39</v>
+      </c>
+      <c r="N10" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="O10" s="21"/>
+      <c r="P10" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="27">
+        <v>52.25</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="28">
+        <v>900</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="28">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="28">
+        <v>0.09</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J11" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="K11" s="28">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L11" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="M11" s="28">
+        <v>0.38</v>
+      </c>
+      <c r="N11" s="28">
+        <v>0.42</v>
+      </c>
+      <c r="O11" s="26"/>
+      <c r="P11" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="22">
+        <v>142.37</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="23">
+        <v>850</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="23">
         <v>12</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="12"/>
+      <c r="G12" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="23">
+        <v>0.09</v>
+      </c>
+      <c r="I12" s="23">
+        <v>0.16</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="K12" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="L12" s="23">
+        <v>0.33</v>
+      </c>
+      <c r="M12" s="23">
+        <v>0.38</v>
+      </c>
+      <c r="N12" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="O12" s="21"/>
+      <c r="P12" s="25" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" ht="58.75" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+    <row r="13" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="2">
-        <v>72.38</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1.145</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.19</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0.31</v>
-      </c>
-      <c r="M3" s="6">
+      <c r="B13" s="32">
+        <v>156.44</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="33">
+        <v>633</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="33">
+        <v>24.35</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="33">
+        <v>0.09</v>
+      </c>
+      <c r="I13" s="33">
+        <v>0.18</v>
+      </c>
+      <c r="J13" s="33">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="K13" s="33">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L13" s="33">
         <v>0.35</v>
       </c>
-      <c r="N3" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2">
-        <v>107.81</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="6">
-        <v>2.25</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.19</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0.23</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0.35</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>100.05</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="6">
-        <v>2.355</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0.23</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0.315</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0.35</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2">
-        <v>60.36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1.69</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.24</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0.36</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+      <c r="M13" s="33">
+        <v>0.38</v>
+      </c>
+      <c r="N13" s="33">
+        <v>0.42</v>
+      </c>
+      <c r="O13" s="31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
+      <c r="P13" s="11" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="A1:A2"/>
+  <mergeCells count="1">
     <mergeCell ref="H1:N1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="P5" r:id="rId1"/>
-    <hyperlink ref="P6" r:id="rId2"/>
-    <hyperlink ref="P3" r:id="rId3"/>
+    <hyperlink ref="P6" r:id="rId1"/>
+    <hyperlink ref="P8" r:id="rId2"/>
+    <hyperlink ref="P4" r:id="rId3"/>
+    <hyperlink ref="P10" r:id="rId4"/>
+    <hyperlink ref="P11" r:id="rId5"/>
+    <hyperlink ref="P13" r:id="rId6"/>
+    <hyperlink ref="P12" r:id="rId7"/>
+    <hyperlink ref="P9" r:id="rId8"/>
+    <hyperlink ref="P5" r:id="rId9"/>
+    <hyperlink ref="P7" r:id="rId10"/>
+    <hyperlink ref="P3" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/doc/comparison_matrix_qp.xlsx
+++ b/doc/comparison_matrix_qp.xlsx
@@ -14,200 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v3.0" hidden="1">Sheet1!$A$10</definedName>
-    <definedName name="_xlchart.v3.1" hidden="1">Sheet1!$A$11</definedName>
-    <definedName name="_xlchart.v3.10" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v3.100" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v3.101" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v3.102" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v3.103" hidden="1">Sheet1!$A$6</definedName>
-    <definedName name="_xlchart.v3.104" hidden="1">Sheet1!$A$7</definedName>
-    <definedName name="_xlchart.v3.105" hidden="1">Sheet1!$A$8</definedName>
-    <definedName name="_xlchart.v3.106" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v3.107" hidden="1">Sheet1!$H$10:$N$10</definedName>
-    <definedName name="_xlchart.v3.108" hidden="1">Sheet1!$H$11:$N$11</definedName>
-    <definedName name="_xlchart.v3.109" hidden="1">Sheet1!$H$12:$N$12</definedName>
-    <definedName name="_xlchart.v3.11" hidden="1">Sheet1!$H$10:$N$10</definedName>
-    <definedName name="_xlchart.v3.110" hidden="1">Sheet1!$H$13:$N$13</definedName>
-    <definedName name="_xlchart.v3.111" hidden="1">Sheet1!$H$2:$N$2</definedName>
-    <definedName name="_xlchart.v3.112" hidden="1">Sheet1!$H$3:$N$3</definedName>
-    <definedName name="_xlchart.v3.113" hidden="1">Sheet1!$H$4:$N$4</definedName>
-    <definedName name="_xlchart.v3.114" hidden="1">Sheet1!$H$5:$N$5</definedName>
-    <definedName name="_xlchart.v3.115" hidden="1">Sheet1!$H$6:$N$6</definedName>
-    <definedName name="_xlchart.v3.116" hidden="1">Sheet1!$H$7:$N$7</definedName>
-    <definedName name="_xlchart.v3.117" hidden="1">Sheet1!$H$8:$N$8</definedName>
-    <definedName name="_xlchart.v3.118" hidden="1">Sheet1!$H$9:$N$9</definedName>
-    <definedName name="_xlchart.v3.119" hidden="1">Sheet1!$H$9:$N$9</definedName>
-    <definedName name="_xlchart.v3.12" hidden="1">Sheet1!$H$11:$N$11</definedName>
-    <definedName name="_xlchart.v3.120" hidden="1">Sheet1!$A$10</definedName>
-    <definedName name="_xlchart.v3.121" hidden="1">Sheet1!$A$11</definedName>
-    <definedName name="_xlchart.v3.122" hidden="1">Sheet1!$A$12</definedName>
-    <definedName name="_xlchart.v3.123" hidden="1">Sheet1!$A$13</definedName>
-    <definedName name="_xlchart.v3.124" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v3.125" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v3.126" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v3.127" hidden="1">Sheet1!$A$6</definedName>
-    <definedName name="_xlchart.v3.128" hidden="1">Sheet1!$A$7</definedName>
-    <definedName name="_xlchart.v3.129" hidden="1">Sheet1!$A$8</definedName>
-    <definedName name="_xlchart.v3.13" hidden="1">Sheet1!$H$12:$N$12</definedName>
-    <definedName name="_xlchart.v3.130" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v3.131" hidden="1">Sheet1!$H$10:$N$10</definedName>
-    <definedName name="_xlchart.v3.132" hidden="1">Sheet1!$H$11:$N$11</definedName>
-    <definedName name="_xlchart.v3.133" hidden="1">Sheet1!$H$12:$N$12</definedName>
-    <definedName name="_xlchart.v3.134" hidden="1">Sheet1!$H$13:$N$13</definedName>
-    <definedName name="_xlchart.v3.135" hidden="1">Sheet1!$H$2:$N$2</definedName>
-    <definedName name="_xlchart.v3.136" hidden="1">Sheet1!$H$3:$N$3</definedName>
-    <definedName name="_xlchart.v3.137" hidden="1">Sheet1!$H$4:$N$4</definedName>
-    <definedName name="_xlchart.v3.138" hidden="1">Sheet1!$H$5:$N$5</definedName>
-    <definedName name="_xlchart.v3.139" hidden="1">Sheet1!$H$6:$N$6</definedName>
-    <definedName name="_xlchart.v3.14" hidden="1">Sheet1!$H$13:$N$13</definedName>
-    <definedName name="_xlchart.v3.140" hidden="1">Sheet1!$H$7:$N$7</definedName>
-    <definedName name="_xlchart.v3.141" hidden="1">Sheet1!$H$8:$N$8</definedName>
-    <definedName name="_xlchart.v3.142" hidden="1">Sheet1!$H$9:$N$9</definedName>
-    <definedName name="_xlchart.v3.143" hidden="1">Sheet1!$H$9:$N$9</definedName>
-    <definedName name="_xlchart.v3.144" hidden="1">Sheet1!$A$10</definedName>
-    <definedName name="_xlchart.v3.145" hidden="1">Sheet1!$A$11</definedName>
-    <definedName name="_xlchart.v3.146" hidden="1">Sheet1!$A$12</definedName>
-    <definedName name="_xlchart.v3.147" hidden="1">Sheet1!$A$13</definedName>
-    <definedName name="_xlchart.v3.148" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v3.149" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v3.15" hidden="1">Sheet1!$H$2:$N$2</definedName>
-    <definedName name="_xlchart.v3.150" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v3.151" hidden="1">Sheet1!$A$6</definedName>
-    <definedName name="_xlchart.v3.152" hidden="1">Sheet1!$A$7</definedName>
-    <definedName name="_xlchart.v3.153" hidden="1">Sheet1!$A$8</definedName>
-    <definedName name="_xlchart.v3.154" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v3.155" hidden="1">Sheet1!$H$10:$N$10</definedName>
-    <definedName name="_xlchart.v3.156" hidden="1">Sheet1!$H$11:$N$11</definedName>
-    <definedName name="_xlchart.v3.157" hidden="1">Sheet1!$H$12:$N$12</definedName>
-    <definedName name="_xlchart.v3.158" hidden="1">Sheet1!$H$13:$N$13</definedName>
-    <definedName name="_xlchart.v3.159" hidden="1">Sheet1!$H$2:$N$2</definedName>
-    <definedName name="_xlchart.v3.16" hidden="1">Sheet1!$H$3:$N$3</definedName>
-    <definedName name="_xlchart.v3.160" hidden="1">Sheet1!$H$3:$N$3</definedName>
-    <definedName name="_xlchart.v3.161" hidden="1">Sheet1!$H$4:$N$4</definedName>
-    <definedName name="_xlchart.v3.162" hidden="1">Sheet1!$H$5:$N$5</definedName>
-    <definedName name="_xlchart.v3.163" hidden="1">Sheet1!$H$6:$N$6</definedName>
-    <definedName name="_xlchart.v3.164" hidden="1">Sheet1!$H$7:$N$7</definedName>
-    <definedName name="_xlchart.v3.165" hidden="1">Sheet1!$H$8:$N$8</definedName>
-    <definedName name="_xlchart.v3.166" hidden="1">Sheet1!$H$9:$N$9</definedName>
-    <definedName name="_xlchart.v3.167" hidden="1">Sheet1!$H$9:$N$9</definedName>
-    <definedName name="_xlchart.v3.168" hidden="1">Sheet1!$A$10</definedName>
-    <definedName name="_xlchart.v3.169" hidden="1">Sheet1!$A$11</definedName>
-    <definedName name="_xlchart.v3.17" hidden="1">Sheet1!$H$4:$N$4</definedName>
-    <definedName name="_xlchart.v3.170" hidden="1">Sheet1!$A$12</definedName>
-    <definedName name="_xlchart.v3.171" hidden="1">Sheet1!$A$13</definedName>
-    <definedName name="_xlchart.v3.172" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v3.173" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v3.174" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v3.175" hidden="1">Sheet1!$A$6</definedName>
-    <definedName name="_xlchart.v3.176" hidden="1">Sheet1!$A$7</definedName>
-    <definedName name="_xlchart.v3.177" hidden="1">Sheet1!$A$8</definedName>
-    <definedName name="_xlchart.v3.178" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v3.179" hidden="1">Sheet1!$H$10:$N$10</definedName>
-    <definedName name="_xlchart.v3.18" hidden="1">Sheet1!$H$5:$N$5</definedName>
-    <definedName name="_xlchart.v3.180" hidden="1">Sheet1!$H$11:$N$11</definedName>
-    <definedName name="_xlchart.v3.181" hidden="1">Sheet1!$H$12:$N$12</definedName>
-    <definedName name="_xlchart.v3.182" hidden="1">Sheet1!$H$13:$N$13</definedName>
-    <definedName name="_xlchart.v3.183" hidden="1">Sheet1!$H$2:$N$2</definedName>
-    <definedName name="_xlchart.v3.184" hidden="1">Sheet1!$H$3:$N$3</definedName>
-    <definedName name="_xlchart.v3.185" hidden="1">Sheet1!$H$4:$N$4</definedName>
-    <definedName name="_xlchart.v3.186" hidden="1">Sheet1!$H$5:$N$5</definedName>
-    <definedName name="_xlchart.v3.187" hidden="1">Sheet1!$H$6:$N$6</definedName>
-    <definedName name="_xlchart.v3.188" hidden="1">Sheet1!$H$7:$N$7</definedName>
-    <definedName name="_xlchart.v3.189" hidden="1">Sheet1!$H$8:$N$8</definedName>
-    <definedName name="_xlchart.v3.19" hidden="1">Sheet1!$H$6:$N$6</definedName>
-    <definedName name="_xlchart.v3.190" hidden="1">Sheet1!$H$9:$N$9</definedName>
-    <definedName name="_xlchart.v3.191" hidden="1">Sheet1!$H$9:$N$9</definedName>
-    <definedName name="_xlchart.v3.2" hidden="1">Sheet1!$A$12</definedName>
-    <definedName name="_xlchart.v3.20" hidden="1">Sheet1!$H$7:$N$7</definedName>
-    <definedName name="_xlchart.v3.21" hidden="1">Sheet1!$H$8:$N$8</definedName>
-    <definedName name="_xlchart.v3.22" hidden="1">Sheet1!$H$9:$N$9</definedName>
-    <definedName name="_xlchart.v3.23" hidden="1">Sheet1!$H$9:$N$9</definedName>
-    <definedName name="_xlchart.v3.24" hidden="1">Sheet1!$A$10</definedName>
-    <definedName name="_xlchart.v3.25" hidden="1">Sheet1!$A$11</definedName>
-    <definedName name="_xlchart.v3.26" hidden="1">Sheet1!$A$12</definedName>
-    <definedName name="_xlchart.v3.27" hidden="1">Sheet1!$A$13</definedName>
-    <definedName name="_xlchart.v3.28" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v3.29" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v3.3" hidden="1">Sheet1!$A$13</definedName>
-    <definedName name="_xlchart.v3.30" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v3.31" hidden="1">Sheet1!$A$6</definedName>
-    <definedName name="_xlchart.v3.32" hidden="1">Sheet1!$A$7</definedName>
-    <definedName name="_xlchart.v3.33" hidden="1">Sheet1!$A$8</definedName>
-    <definedName name="_xlchart.v3.34" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v3.35" hidden="1">Sheet1!$H$10:$N$10</definedName>
-    <definedName name="_xlchart.v3.36" hidden="1">Sheet1!$H$11:$N$11</definedName>
-    <definedName name="_xlchart.v3.37" hidden="1">Sheet1!$H$12:$N$12</definedName>
-    <definedName name="_xlchart.v3.38" hidden="1">Sheet1!$H$13:$N$13</definedName>
-    <definedName name="_xlchart.v3.39" hidden="1">Sheet1!$H$2:$N$2</definedName>
-    <definedName name="_xlchart.v3.4" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v3.40" hidden="1">Sheet1!$H$3:$N$3</definedName>
-    <definedName name="_xlchart.v3.41" hidden="1">Sheet1!$H$4:$N$4</definedName>
-    <definedName name="_xlchart.v3.42" hidden="1">Sheet1!$H$5:$N$5</definedName>
-    <definedName name="_xlchart.v3.43" hidden="1">Sheet1!$H$6:$N$6</definedName>
-    <definedName name="_xlchart.v3.44" hidden="1">Sheet1!$H$7:$N$7</definedName>
-    <definedName name="_xlchart.v3.45" hidden="1">Sheet1!$H$8:$N$8</definedName>
-    <definedName name="_xlchart.v3.46" hidden="1">Sheet1!$H$9:$N$9</definedName>
-    <definedName name="_xlchart.v3.47" hidden="1">Sheet1!$H$9:$N$9</definedName>
-    <definedName name="_xlchart.v3.48" hidden="1">Sheet1!$A$10</definedName>
-    <definedName name="_xlchart.v3.49" hidden="1">Sheet1!$A$11</definedName>
-    <definedName name="_xlchart.v3.5" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v3.50" hidden="1">Sheet1!$A$12</definedName>
-    <definedName name="_xlchart.v3.51" hidden="1">Sheet1!$A$13</definedName>
-    <definedName name="_xlchart.v3.52" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v3.53" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v3.54" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v3.55" hidden="1">Sheet1!$A$6</definedName>
-    <definedName name="_xlchart.v3.56" hidden="1">Sheet1!$A$7</definedName>
-    <definedName name="_xlchart.v3.57" hidden="1">Sheet1!$A$8</definedName>
-    <definedName name="_xlchart.v3.58" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v3.59" hidden="1">Sheet1!$H$10:$N$10</definedName>
-    <definedName name="_xlchart.v3.6" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v3.60" hidden="1">Sheet1!$H$11:$N$11</definedName>
-    <definedName name="_xlchart.v3.61" hidden="1">Sheet1!$H$12:$N$12</definedName>
-    <definedName name="_xlchart.v3.62" hidden="1">Sheet1!$H$13:$N$13</definedName>
-    <definedName name="_xlchart.v3.63" hidden="1">Sheet1!$H$2:$N$2</definedName>
-    <definedName name="_xlchart.v3.64" hidden="1">Sheet1!$H$3:$N$3</definedName>
-    <definedName name="_xlchart.v3.65" hidden="1">Sheet1!$H$4:$N$4</definedName>
-    <definedName name="_xlchart.v3.66" hidden="1">Sheet1!$H$5:$N$5</definedName>
-    <definedName name="_xlchart.v3.67" hidden="1">Sheet1!$H$6:$N$6</definedName>
-    <definedName name="_xlchart.v3.68" hidden="1">Sheet1!$H$7:$N$7</definedName>
-    <definedName name="_xlchart.v3.69" hidden="1">Sheet1!$H$8:$N$8</definedName>
-    <definedName name="_xlchart.v3.7" hidden="1">Sheet1!$A$6</definedName>
-    <definedName name="_xlchart.v3.70" hidden="1">Sheet1!$H$9:$N$9</definedName>
-    <definedName name="_xlchart.v3.71" hidden="1">Sheet1!$H$9:$N$9</definedName>
-    <definedName name="_xlchart.v3.72" hidden="1">Sheet1!$A$10</definedName>
-    <definedName name="_xlchart.v3.73" hidden="1">Sheet1!$A$11</definedName>
-    <definedName name="_xlchart.v3.74" hidden="1">Sheet1!$A$12</definedName>
-    <definedName name="_xlchart.v3.75" hidden="1">Sheet1!$A$13</definedName>
-    <definedName name="_xlchart.v3.76" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v3.77" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v3.78" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v3.79" hidden="1">Sheet1!$A$6</definedName>
-    <definedName name="_xlchart.v3.8" hidden="1">Sheet1!$A$7</definedName>
-    <definedName name="_xlchart.v3.80" hidden="1">Sheet1!$A$7</definedName>
-    <definedName name="_xlchart.v3.81" hidden="1">Sheet1!$A$8</definedName>
-    <definedName name="_xlchart.v3.82" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v3.83" hidden="1">Sheet1!$H$10:$N$10</definedName>
-    <definedName name="_xlchart.v3.84" hidden="1">Sheet1!$H$11:$N$11</definedName>
-    <definedName name="_xlchart.v3.85" hidden="1">Sheet1!$H$12:$N$12</definedName>
-    <definedName name="_xlchart.v3.86" hidden="1">Sheet1!$H$13:$N$13</definedName>
-    <definedName name="_xlchart.v3.87" hidden="1">Sheet1!$H$2:$N$2</definedName>
-    <definedName name="_xlchart.v3.88" hidden="1">Sheet1!$H$3:$N$3</definedName>
-    <definedName name="_xlchart.v3.89" hidden="1">Sheet1!$H$4:$N$4</definedName>
-    <definedName name="_xlchart.v3.9" hidden="1">Sheet1!$A$8</definedName>
-    <definedName name="_xlchart.v3.90" hidden="1">Sheet1!$H$5:$N$5</definedName>
-    <definedName name="_xlchart.v3.91" hidden="1">Sheet1!$H$6:$N$6</definedName>
-    <definedName name="_xlchart.v3.92" hidden="1">Sheet1!$H$7:$N$7</definedName>
-    <definedName name="_xlchart.v3.93" hidden="1">Sheet1!$H$8:$N$8</definedName>
-    <definedName name="_xlchart.v3.94" hidden="1">Sheet1!$H$9:$N$9</definedName>
-    <definedName name="_xlchart.v3.95" hidden="1">Sheet1!$H$9:$N$9</definedName>
-    <definedName name="_xlchart.v3.96" hidden="1">Sheet1!$A$10</definedName>
-    <definedName name="_xlchart.v3.97" hidden="1">Sheet1!$A$11</definedName>
-    <definedName name="_xlchart.v3.98" hidden="1">Sheet1!$A$12</definedName>
-    <definedName name="_xlchart.v3.99" hidden="1">Sheet1!$A$13</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -822,9 +628,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -838,6 +641,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2535,15 +2341,26 @@
         </c:majorGridlines>
         <c:title>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Responsivity (A/W) @ Wavelength (nm)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Responsivity (A/W)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
           </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
@@ -3541,7 +3358,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3553,8 +3370,8 @@
     <col min="5" max="5" width="10.53515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.4609375" style="5" customWidth="1"/>
     <col min="7" max="7" width="17.3828125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="7" style="5" customWidth="1"/>
-    <col min="15" max="15" width="9.53515625" style="1" customWidth="1"/>
+    <col min="8" max="14" width="5.69140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="17.765625" style="1" customWidth="1"/>
     <col min="16" max="16" width="23.84375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3566,15 +3383,15 @@
       <c r="E1" s="8"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
       <c r="O1" s="9"/>
       <c r="P1" s="10"/>
     </row>
@@ -3600,28 +3417,28 @@
       <c r="G2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="36">
         <v>400</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="37">
         <v>450</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="38">
         <v>475</v>
       </c>
-      <c r="K2" s="40">
+      <c r="K2" s="39">
         <v>500</v>
       </c>
-      <c r="L2" s="41">
+      <c r="L2" s="40">
         <v>575</v>
       </c>
-      <c r="M2" s="42">
+      <c r="M2" s="41">
         <v>600</v>
       </c>
-      <c r="N2" s="44">
+      <c r="N2" s="43">
         <v>650</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="42" t="s">
         <v>1</v>
       </c>
       <c r="P2" s="15" t="s">
@@ -3650,25 +3467,25 @@
       <c r="G3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="35">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="35">
         <v>0.19</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="35">
         <v>0.21</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="35">
         <v>0.22</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="35">
         <v>0.31</v>
       </c>
-      <c r="M3" s="36">
+      <c r="M3" s="35">
         <v>0.34499999999999997</v>
       </c>
-      <c r="N3" s="36">
+      <c r="N3" s="35">
         <v>0.4</v>
       </c>
       <c r="O3" s="16"/>

--- a/doc/comparison_matrix_qp.xlsx
+++ b/doc/comparison_matrix_qp.xlsx
@@ -14,6 +14,56 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v3.0" hidden="1">Sheet1!$A$10</definedName>
+    <definedName name="_xlchart.v3.1" hidden="1">Sheet1!$A$11</definedName>
+    <definedName name="_xlchart.v3.10" hidden="1">Sheet1!$A$9</definedName>
+    <definedName name="_xlchart.v3.11" hidden="1">Sheet1!$H$10:$N$10</definedName>
+    <definedName name="_xlchart.v3.12" hidden="1">Sheet1!$H$11:$N$11</definedName>
+    <definedName name="_xlchart.v3.13" hidden="1">Sheet1!$H$12:$N$12</definedName>
+    <definedName name="_xlchart.v3.14" hidden="1">Sheet1!$H$13:$N$13</definedName>
+    <definedName name="_xlchart.v3.15" hidden="1">Sheet1!$H$2:$N$2</definedName>
+    <definedName name="_xlchart.v3.16" hidden="1">Sheet1!$H$3:$N$3</definedName>
+    <definedName name="_xlchart.v3.17" hidden="1">Sheet1!$H$4:$N$4</definedName>
+    <definedName name="_xlchart.v3.18" hidden="1">Sheet1!$H$5:$N$5</definedName>
+    <definedName name="_xlchart.v3.19" hidden="1">Sheet1!$H$6:$N$6</definedName>
+    <definedName name="_xlchart.v3.2" hidden="1">Sheet1!$A$12</definedName>
+    <definedName name="_xlchart.v3.20" hidden="1">Sheet1!$H$7:$N$7</definedName>
+    <definedName name="_xlchart.v3.21" hidden="1">Sheet1!$H$8:$N$8</definedName>
+    <definedName name="_xlchart.v3.22" hidden="1">Sheet1!$H$9:$N$9</definedName>
+    <definedName name="_xlchart.v3.23" hidden="1">Sheet1!$H$9:$N$9</definedName>
+    <definedName name="_xlchart.v3.24" hidden="1">Sheet1!$A$10</definedName>
+    <definedName name="_xlchart.v3.25" hidden="1">Sheet1!$A$11</definedName>
+    <definedName name="_xlchart.v3.26" hidden="1">Sheet1!$A$12</definedName>
+    <definedName name="_xlchart.v3.27" hidden="1">Sheet1!$A$13</definedName>
+    <definedName name="_xlchart.v3.28" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v3.29" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v3.3" hidden="1">Sheet1!$A$13</definedName>
+    <definedName name="_xlchart.v3.30" hidden="1">Sheet1!$A$5</definedName>
+    <definedName name="_xlchart.v3.31" hidden="1">Sheet1!$A$6</definedName>
+    <definedName name="_xlchart.v3.32" hidden="1">Sheet1!$A$7</definedName>
+    <definedName name="_xlchart.v3.33" hidden="1">Sheet1!$A$8</definedName>
+    <definedName name="_xlchart.v3.34" hidden="1">Sheet1!$A$9</definedName>
+    <definedName name="_xlchart.v3.35" hidden="1">Sheet1!$H$10:$N$10</definedName>
+    <definedName name="_xlchart.v3.36" hidden="1">Sheet1!$H$11:$N$11</definedName>
+    <definedName name="_xlchart.v3.37" hidden="1">Sheet1!$H$12:$N$12</definedName>
+    <definedName name="_xlchart.v3.38" hidden="1">Sheet1!$H$13:$N$13</definedName>
+    <definedName name="_xlchart.v3.39" hidden="1">Sheet1!$H$2:$N$2</definedName>
+    <definedName name="_xlchart.v3.4" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v3.40" hidden="1">Sheet1!$H$3:$N$3</definedName>
+    <definedName name="_xlchart.v3.41" hidden="1">Sheet1!$H$4:$N$4</definedName>
+    <definedName name="_xlchart.v3.42" hidden="1">Sheet1!$H$5:$N$5</definedName>
+    <definedName name="_xlchart.v3.43" hidden="1">Sheet1!$H$6:$N$6</definedName>
+    <definedName name="_xlchart.v3.44" hidden="1">Sheet1!$H$7:$N$7</definedName>
+    <definedName name="_xlchart.v3.45" hidden="1">Sheet1!$H$8:$N$8</definedName>
+    <definedName name="_xlchart.v3.46" hidden="1">Sheet1!$H$9:$N$9</definedName>
+    <definedName name="_xlchart.v3.47" hidden="1">Sheet1!$H$9:$N$9</definedName>
+    <definedName name="_xlchart.v3.5" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v3.6" hidden="1">Sheet1!$A$5</definedName>
+    <definedName name="_xlchart.v3.7" hidden="1">Sheet1!$A$6</definedName>
+    <definedName name="_xlchart.v3.8" hidden="1">Sheet1!$A$7</definedName>
+    <definedName name="_xlchart.v3.9" hidden="1">Sheet1!$A$8</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -161,35 +211,10 @@
     <t>http://www.digikey.com/product-detail/en/luna-optoelectronics/PDB-C203/PDB-C203-ND/201823</t>
   </si>
   <si>
-    <r>
-      <t>Active Area (mm</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) each</t>
-    </r>
-  </si>
-  <si>
     <t>Responsivity (A/W) @ Wavelength (nm)</t>
+  </si>
+  <si>
+    <t>Active Area (mm^2) each</t>
   </si>
 </sst>
 </file>
@@ -200,7 +225,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,15 +252,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -327,11 +343,33 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -351,8 +389,85 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
+      <left style="thick">
+        <color rgb="FF9F00FF"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF9F00FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF4B0082"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF4B0082"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00FF00"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00FF00"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFF00"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFFFF00"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF7F00"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF7F00"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
       </left>
       <right/>
       <top style="thin">
@@ -379,8 +494,74 @@
         <color theme="1"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thick">
+        <color rgb="FF9F00FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF4B0082"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00FF00"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFFFF00"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF7F00"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -411,124 +592,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9F00FF"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9F00FF"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9F00FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF4B0082"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF4B0082"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF4B0082"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0000FF"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF00FF00"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF00FF00"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF00FF00"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFFFF00"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFFFF00"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFFFF00"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF7F00"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFF7F00"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFF7F00"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -556,49 +626,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -613,36 +647,90 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -819,19 +907,19 @@
                   <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>475</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>575</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>650</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,19 +1036,19 @@
                   <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>475</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>575</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>650</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -998,7 +1086,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1FE0-40A9-A30C-617ADD5BF1BA}"/>
+              <c16:uniqueId val="{00000008-E726-4D14-B5C5-14D7DD96FDCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1077,19 +1165,19 @@
                   <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>475</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>575</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>650</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,7 +1215,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1FE0-40A9-A30C-617ADD5BF1BA}"/>
+              <c16:uniqueId val="{00000009-E726-4D14-B5C5-14D7DD96FDCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1206,19 +1294,19 @@
                   <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>475</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>575</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>650</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1256,7 +1344,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1FE0-40A9-A30C-617ADD5BF1BA}"/>
+              <c16:uniqueId val="{0000000A-E726-4D14-B5C5-14D7DD96FDCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1335,19 +1423,19 @@
                   <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>475</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>575</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>650</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1385,7 +1473,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1FE0-40A9-A30C-617ADD5BF1BA}"/>
+              <c16:uniqueId val="{0000000B-E726-4D14-B5C5-14D7DD96FDCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1464,19 +1552,19 @@
                   <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>475</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>575</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>650</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1514,7 +1602,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-1FE0-40A9-A30C-617ADD5BF1BA}"/>
+              <c16:uniqueId val="{0000000C-E726-4D14-B5C5-14D7DD96FDCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1600,19 +1688,19 @@
                   <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>475</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>575</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>650</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1650,7 +1738,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1FE0-40A9-A30C-617ADD5BF1BA}"/>
+              <c16:uniqueId val="{0000000D-E726-4D14-B5C5-14D7DD96FDCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1736,19 +1824,19 @@
                   <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>475</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>575</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>650</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1786,7 +1874,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-1FE0-40A9-A30C-617ADD5BF1BA}"/>
+              <c16:uniqueId val="{0000000E-E726-4D14-B5C5-14D7DD96FDCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1872,19 +1960,19 @@
                   <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>475</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>575</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>650</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1922,7 +2010,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-1FE0-40A9-A30C-617ADD5BF1BA}"/>
+              <c16:uniqueId val="{0000000F-E726-4D14-B5C5-14D7DD96FDCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2008,19 +2096,19 @@
                   <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>475</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>575</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>650</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2058,7 +2146,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-1FE0-40A9-A30C-617ADD5BF1BA}"/>
+              <c16:uniqueId val="{00000010-E726-4D14-B5C5-14D7DD96FDCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2144,19 +2232,19 @@
                   <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>475</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>575</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>650</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2194,7 +2282,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-1FE0-40A9-A30C-617ADD5BF1BA}"/>
+              <c16:uniqueId val="{00000011-E726-4D14-B5C5-14D7DD96FDCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2213,8 +2301,7 @@
         <c:axId val="1964365583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="650"/>
-          <c:min val="400"/>
+          <c:min val="350"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2287,13 +2374,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx2">
                 <a:lumMod val="40000"/>
                 <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3358,7 +3446,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3366,13 +3454,13 @@
     <col min="1" max="1" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.4609375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.765625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.53515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.4609375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.3828125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.53515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.69140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="17.3828125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="5.69140625" style="5" customWidth="1"/>
+    <col min="8" max="14" width="5.921875" style="5" customWidth="1"/>
     <col min="15" max="15" width="17.765625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="23.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.921875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3383,597 +3471,597 @@
       <c r="E1" s="8"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
+      <c r="H1" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
       <c r="O1" s="9"/>
       <c r="P1" s="10"/>
     </row>
     <row r="2" spans="1:16" s="9" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="28">
         <v>400</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="29">
         <v>450</v>
       </c>
-      <c r="J2" s="38">
-        <v>475</v>
-      </c>
-      <c r="K2" s="39">
+      <c r="J2" s="30">
+        <v>480</v>
+      </c>
+      <c r="K2" s="31">
         <v>500</v>
       </c>
-      <c r="L2" s="40">
-        <v>575</v>
-      </c>
-      <c r="M2" s="41">
+      <c r="L2" s="32">
+        <v>580</v>
+      </c>
+      <c r="M2" s="33">
         <v>600</v>
       </c>
-      <c r="N2" s="43">
-        <v>650</v>
-      </c>
-      <c r="O2" s="42" t="s">
+      <c r="N2" s="34">
+        <v>640</v>
+      </c>
+      <c r="O2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <v>5.98</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>890</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="16">
         <v>0.75</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="38">
         <v>0.19</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="39">
         <v>0.21</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="40">
         <v>0.22</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="41">
         <v>0.31</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3" s="42">
         <v>0.34499999999999997</v>
       </c>
-      <c r="N3" s="35">
+      <c r="N3" s="43">
         <v>0.4</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="20" t="s">
+      <c r="O3" s="14"/>
+      <c r="P3" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="19">
         <v>72.38</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="20">
         <v>660</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="20">
         <v>1.145</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="20">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="20">
         <v>0.19</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="20">
         <v>0.21</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="20">
         <v>0.22</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="20">
         <v>0.31</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="20">
         <v>0.35</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="20">
         <v>0.4</v>
       </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="25" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="23">
         <v>107.81</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="24">
         <v>660</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="24">
         <v>2.25</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="24">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="24">
         <v>0.19</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="24">
         <v>0.21</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="24">
         <v>0.23</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="24">
         <v>0.32</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="24">
         <v>0.35</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="24">
         <v>0.4</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="30" t="s">
+      <c r="O5" s="22"/>
+      <c r="P5" s="46" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="19">
         <v>100.05</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="20">
         <v>660</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="20">
         <v>2.355</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="20">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="20">
         <v>0.18</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="20">
         <v>0.20499999999999999</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="20">
         <v>0.23</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="20">
         <v>0.315</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="20">
         <v>0.35</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="20">
         <v>0.4</v>
       </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="25" t="s">
+      <c r="O6" s="18"/>
+      <c r="P6" s="45" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="23">
         <v>93.02</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="24">
         <v>660</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="24">
         <v>5.2220000000000004</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="24">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="24">
         <v>0.18</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="24">
         <v>0.21</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="24">
         <v>0.22</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="24">
         <v>0.32</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="24">
         <v>0.34499999999999997</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="24">
         <v>0.4</v>
       </c>
-      <c r="O7" s="26" t="s">
+      <c r="O7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="46" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="19">
         <v>60.36</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="20">
         <v>950</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="20">
         <v>1.69</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="20">
         <v>0.12</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="20">
         <v>0.2</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="20">
         <v>0.24</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="20">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="20">
         <v>0.36</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="20">
         <v>0.4</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="20">
         <v>0.45</v>
       </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="25" t="s">
+      <c r="O8" s="18"/>
+      <c r="P8" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="23">
         <v>40</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="24">
         <v>900</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="24">
         <v>0.25</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="24">
         <v>0.18</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="24">
         <v>0.17499999999999999</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="24">
         <v>0.2</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="24">
         <v>0.23</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="24">
         <v>0.32500000000000001</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="24">
         <v>0.38</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="24">
         <v>0.42</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="30" t="s">
+      <c r="O9" s="22"/>
+      <c r="P9" s="46" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="19">
         <v>44.54</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="20">
         <v>633</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="20">
         <v>1.44</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="20">
         <v>0.1</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="20">
         <v>0.15</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="20">
         <v>0.18</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="20">
         <v>0.215</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="20">
         <v>0.35</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="20">
         <v>0.39</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="20">
         <v>0.45</v>
       </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="25" t="s">
+      <c r="O10" s="18"/>
+      <c r="P10" s="45" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="23">
         <v>52.25</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="24">
         <v>900</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="24">
         <v>2.4500000000000002</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="24">
         <v>0.09</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="24">
         <v>0.16500000000000001</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="24">
         <v>0.2</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="24">
         <v>0.22500000000000001</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="24">
         <v>0.33</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="24">
         <v>0.38</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="24">
         <v>0.42</v>
       </c>
-      <c r="O11" s="26"/>
-      <c r="P11" s="30" t="s">
+      <c r="O11" s="22"/>
+      <c r="P11" s="46" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="19">
         <v>142.37</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="20">
         <v>850</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="20">
         <v>12</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="20">
         <v>0.09</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="20">
         <v>0.16</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="20">
         <v>0.2</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="20">
         <v>0.23</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="20">
         <v>0.33</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="20">
         <v>0.38</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="20">
         <v>0.42</v>
       </c>
-      <c r="O12" s="21"/>
-      <c r="P12" s="25" t="s">
+      <c r="O12" s="18"/>
+      <c r="P12" s="45" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="48">
         <v>156.44</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="49">
         <v>633</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="49">
         <v>24.35</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="49">
         <v>0.09</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="49">
         <v>0.18</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="49">
         <v>0.20499999999999999</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="49">
         <v>0.22500000000000001</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="49">
         <v>0.35</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="49">
         <v>0.38</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="49">
         <v>0.42</v>
       </c>
-      <c r="O13" s="31" t="s">
+      <c r="O13" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="27" t="s">
         <v>33</v>
       </c>
     </row>
